--- a/ProjectionControlGeneralSetting.xlsx
+++ b/ProjectionControlGeneralSetting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IBM\test2.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmazur\Documents\IBLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87806C55-02AB-42E9-9AA9-51081FFDD1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16812" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectionSetting" sheetId="1" r:id="rId1"/>
@@ -426,15 +427,15 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -450,7 +451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -458,12 +459,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectionControlGeneralSetting.xlsx
+++ b/ProjectionControlGeneralSetting.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmazur\Documents\IBLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mackenzie\Desktop\IBM\Tuning Result 6\Test with Effort from Harvester and Sea Sampling and arbitrary change 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87806C55-02AB-42E9-9AA9-51081FFDD1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16812" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectionSetting" sheetId="1" r:id="rId1"/>
@@ -427,15 +426,15 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,15 +442,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
